--- a/registrations.xlsx
+++ b/registrations.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -475,9 +475,55 @@
         <v>30/06/2025, 3:37:13 am</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Fazal</v>
+      </c>
+      <c r="B4" t="str">
+        <v>fazaldkhan315@gmail.com</v>
+      </c>
+      <c r="C4">
+        <v>2374092384</v>
+      </c>
+      <c r="D4">
+        <v>9384209384</v>
+      </c>
+      <c r="E4" t="str">
+        <v>male</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Data Science</v>
+      </c>
+      <c r="G4" t="str">
+        <v>30/06/2025, 6:02:02 am</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Fazal</v>
+      </c>
+      <c r="B5" t="str">
+        <v>fazaldkhan315@gmail.com</v>
+      </c>
+      <c r="C5">
+        <v>23432</v>
+      </c>
+      <c r="D5">
+        <v>34234234</v>
+      </c>
+      <c r="E5" t="str">
+        <v>male</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Data Science</v>
+      </c>
+      <c r="G5" t="str">
+        <v>30/06/2025, 6:07:34 am</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>